--- a/data/financial_statements/sofp/MTB.xlsx
+++ b/data/financial_statements/sofp/MTB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2131 +590,2176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>26596810000</v>
+      </c>
+      <c r="C2">
         <v>27777010000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>35509830000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>37634400000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>43259630000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>40550050000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>35987850000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>33354570000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>26285130000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>22902740000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>23536690000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11418790000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>9096588000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>14928840000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10542770000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9146479000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9896220000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7960395000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8187382000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7569232000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>6632700000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>7845252000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>6543953000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8406965000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>6645054000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>12598430000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>10265410000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>11191340000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>9236174000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6303680000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5673719000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>8021429000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>8152399000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>9496620000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5263291000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5377110000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3700203000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4356934000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4408091000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3550981000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>156235600000</v>
+      </c>
+      <c r="C3">
         <v>163003000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>170884300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>134776200000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>142209400000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>139736600000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>138761000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>138116900000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129786600000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>125146700000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>125313000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>109848400000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>104612400000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>109122700000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>104276600000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>101806500000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>102117000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>98473800000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>99853560000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>99269480000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>98617810000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>99999440000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>99727420000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>101894400000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>101832700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>106747200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>103489600000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>103774400000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>101731400000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>79189050000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>78202280000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>79829560000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>79519350000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>79701070000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>74515620000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>73954730000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>72138900000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>71899010000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>73808410000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>72934520000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>1620339000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1600172000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1134718000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1144765000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1117903000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1116703000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1148941000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1161558000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1146681000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1155281000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1154558000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1140924000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1074181000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1066511000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1044761000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>647408000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>634424000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>637809000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>628706000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>646451000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>656713000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>673552000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>672769000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>675263000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>660381000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>658216000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>662891000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>666682000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>581976000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>590567000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>602096000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>612984000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>612076000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>625006000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>627966000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>633520000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>614795000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>595536000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>589570000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>25210870000</v>
+      </c>
+      <c r="C5">
         <v>24603770000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>22801720000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9356832000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7155860000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6447622000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6143177000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6610667000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>7045697000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7723004000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8454344000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8956590000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9497251000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>10677580000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>11580250000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>12536840000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>12692810000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13073880000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>13283000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>14066560000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>14664530000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>15073930000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>15816060000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>15968420000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>16250470000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>14733570000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>14963080000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>15467320000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>15656440000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>14494540000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>14751640000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>14393270000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>12993540000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>13348370000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>12120200000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>10364250000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>8796497000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>8309773000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>5210526000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>5660831000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>8699463000</v>
+      </c>
+      <c r="C6">
         <v>8728331000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8746716000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4595854000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4597110000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4599064000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4601802000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4604539000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4607277000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4610406000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4614320000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4618233000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4622146000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4626451000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4631540000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4637059000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4640179000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4645538000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4651681000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4658069000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4664701000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4671726000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4679534000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4687647000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4690767000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4699856000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4709643000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4721061000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4733380000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3531504000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3535594000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3552859000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3559652000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3566822000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3574180000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3583414000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3593476000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3603915000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3614543000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3627045000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>10583870000</v>
+      </c>
+      <c r="C7">
         <v>7785000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7970000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6264000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6706000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6099000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6754000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7011000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6620000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5476000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5588000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5604000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5605000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>44494200000</v>
+      </c>
+      <c r="C8">
         <v>34952440000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>33148610000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>15087400000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12897730000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12164590000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11861680000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12364150000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12814530000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>13480090000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>14223950000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>14729380000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>15260320000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>16378210000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>17278300000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>18218660000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>17980400000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>18353840000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>18572490000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>19353340000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>19975680000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>20402360000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>21169140000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>21328830000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>21616500000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>20093810000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>20330940000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>20851270000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>21056500000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>18608020000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>18877800000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>18548220000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>17166180000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>17527270000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>16319380000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>14575630000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>13023490000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>12528480000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>9420605000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>9877445000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>200729800000</v>
+      </c>
+      <c r="C9">
         <v>197955500000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>204032900000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>149863500000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>155107200000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>151901200000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>150622700000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>150481100000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>142601100000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>138626800000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>139537000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>124577800000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>119872800000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>125500900000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>121554900000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>120025200000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>120097400000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>116827600000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>118426100000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>118622800000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>118593500000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>120401800000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>120896600000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>123223300000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>123449200000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>126841000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>123820600000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>124625600000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>122787900000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>97797060000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>97080080000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>98377780000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>96685530000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>97228340000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>90835000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>88530360000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>85162390000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>84427480000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>83229010000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>82811950000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>3554951000</v>
+      </c>
+      <c r="C10">
         <v>917806000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1119321000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>50307000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>47046000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>103548000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>91235000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>58957000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>59482000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>46123000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>52298000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>59180000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>62363000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>5513896000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4611390000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3602566000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4398378000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1310110000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3239416000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1626129000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>175099000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>200768000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1695453000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>185102000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>163442000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>213846000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>407123000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1766826000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2132182000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>173783000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>153299000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>193495000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>192676000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>164609000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>161631000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>230209000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>260455000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>246019000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>307740000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>374593000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>163514900000</v>
+      </c>
+      <c r="C11">
         <v>163845400000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>170358400000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>126318700000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>131543400000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>128701300000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>128268800000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>128476400000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>119805700000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>115163300000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>114968000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>100183300000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>94770070000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>95113930000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>91681020000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>90469750000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>90156570000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>89140400000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>89272590000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>90946630000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>92432150000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>93513390000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>93540940000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>97042520000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>95493880000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>98136840000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>94650100000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>94214580000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>91957840000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>72944550000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>72629620000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>73594120000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>73582050000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>74341500000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>69829260000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>68699370000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>67118610000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>66552140000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>65661470000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>65089730000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>4377495000</v>
+      </c>
+      <c r="C12">
         <v>4476456000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3743278000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2174925000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2127931000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2067188000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2042948000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2000727000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2166409000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1857383000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2250316000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2198116000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2337490000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2090762000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1915147000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1889336000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1637348000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1800778000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1953848000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1749320000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1593993000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1791946000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1727059000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1694905000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1811431000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1938201000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1963093000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1948142000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1870714000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1582513000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1453249000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1552724000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1567951000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1327524000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1283430000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1462725000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1368922000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1491797000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1421067000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1530118000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>918000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1119000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>50000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1053000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>104000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>91000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>59000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1074000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>46000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>152000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>160000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2337000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>171447400000</v>
+      </c>
+      <c r="C14">
         <v>169239700000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>175221000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>128543900000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>133718400000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>130872000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>130403000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>130536000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>122031600000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>117066800000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>117270600000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>102440600000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>97169920000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>102718600000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>98207560000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>95961650000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>96192300000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>92251290000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>94465850000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>94322090000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>94201240000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>95506100000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>96963450000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>98922530000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>97468750000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>100288900000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>97020320000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>97929550000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>95960730000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>74700840000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>74236160000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>75340340000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>75342690000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>75833630000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>71274320000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>70392300000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>68747980000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>68289950000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>67390280000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>66994440000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3964537000</v>
+      </c>
+      <c r="C15">
         <v>3459336000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3017363000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3443587000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3485369000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3500391000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3499448000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3498503000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4382193000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5458885000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6321291000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6321435000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6986186000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>7002524000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>7655507000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>8476024000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8444914000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9140268000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>8382316000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>8591051000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>8141430000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>8577645000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>7649580000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>8087619000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>9493835000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>10211160000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>10328750000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>10341040000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10653860000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>10174290000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>10175910000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>10509140000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>9006959000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>9061391000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>7391931000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>6251197000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>5108870000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>5121326000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>5122398000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>5394563000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>46000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>44000000</v>
-      </c>
-      <c r="D16">
-        <v>45000000</v>
       </c>
       <c r="E16">
         <v>45000000</v>
       </c>
       <c r="F16">
+        <v>45000000</v>
+      </c>
+      <c r="G16">
         <v>41000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>38000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>41000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>42000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>41000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>42000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>41000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>43000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>4430000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3699000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2130000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1652000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2026000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2005000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1960000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1763000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1816000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2208000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2157000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1807000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3964537000</v>
+      </c>
+      <c r="C18">
         <v>3459336000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3017363000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3443587000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3485369000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3500391000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3499448000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3498503000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4382193000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5458885000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6321291000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6321435000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>6986186000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7002524000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7655507000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>8476024000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>8444914000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>9140268000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>8382316000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8591051000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>8141430000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>8577645000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7649580000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>8087619000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>9493835000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>10211160000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>10328750000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>10341040000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>10653860000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>10174290000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>10175910000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>10509140000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>9006959000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>9061391000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>7391931000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>6251197000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>5108870000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>5121326000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>5122398000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>5394563000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>175411800000</v>
+      </c>
+      <c r="C19">
         <v>172699000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>178238400000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>131987500000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>137203800000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>134372400000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>133902400000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>134034500000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>126413800000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>122525700000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>123591900000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>108762000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>104156100000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>109721100000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>105863100000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>104437700000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>104637200000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>101391600000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>102848200000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>102913100000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>102342700000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>104083800000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>104613000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>107010100000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>106962600000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>110500100000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>107349100000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>108270600000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>106614600000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>84875130000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>84412080000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>85849480000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>84349640000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>84895020000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>78666250000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>76643500000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>73856860000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>73411280000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>72512670000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>72389000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>9994395000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>9986881000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6611659000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6635000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6624656000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6620528000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6611150000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6617404000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6609573000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6599069000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6588407000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6593539000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6584705000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6577603000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6568480000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6579342000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6585447000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6579395000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6572281000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6590855000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6598048000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6604930000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6603355000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>6676948000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6689812000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6690671000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6683499000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>6680768000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3511182000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3477611000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3445707000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3409506000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3377714000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>3347314000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3302402000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>3232014000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3192981000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>3112666000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3061783000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>2010600000</v>
@@ -2609,7 +2768,7 @@
         <v>2010600000</v>
       </c>
       <c r="D21">
-        <v>1750000000</v>
+        <v>2010600000</v>
       </c>
       <c r="E21">
         <v>1750000000</v>
@@ -2618,7 +2777,7 @@
         <v>1750000000</v>
       </c>
       <c r="G21">
-        <v>1250000000</v>
+        <v>1750000000</v>
       </c>
       <c r="H21">
         <v>1250000000</v>
@@ -2642,7 +2801,7 @@
         <v>1250000000</v>
       </c>
       <c r="O21">
-        <v>1231500000</v>
+        <v>1250000000</v>
       </c>
       <c r="P21">
         <v>1231500000</v>
@@ -2708,30 +2867,33 @@
         <v>1231500000</v>
       </c>
       <c r="AK21">
+        <v>1231500000</v>
+      </c>
+      <c r="AL21">
         <v>881500000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>879010000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>876796000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>874627000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>89718000</v>
+        <v>23307390000</v>
       </c>
       <c r="C22">
         <v>89718000</v>
       </c>
       <c r="D22">
-        <v>79871000</v>
+        <v>89718000</v>
       </c>
       <c r="E22">
         <v>79871000</v>
@@ -2770,914 +2932,926 @@
         <v>79871000</v>
       </c>
       <c r="Q22">
-        <v>79883000</v>
+        <v>79871000</v>
       </c>
       <c r="R22">
         <v>79883000</v>
       </c>
       <c r="S22">
-        <v>79884000</v>
+        <v>79883000</v>
       </c>
       <c r="T22">
         <v>79884000</v>
       </c>
       <c r="U22">
+        <v>79884000</v>
+      </c>
+      <c r="V22">
         <v>79909000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>79910000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>79911000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>79913000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>79973000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>79975000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>79979000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>79982000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>79782000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>66637000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>66531000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>66455000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>66157000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>66050000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>65956000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>65694000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>65258000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>65097000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>64709000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>64476000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>15219830000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>14808640000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>14830670000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>14646450000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14365910000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>14030210000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13731890000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13444430000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>13132370000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>12919340000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>12837390000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>12820920000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>12490230000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>12162280000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>11842370000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>11516670000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>11128340000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>10763640000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>10404460000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>10164800000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9909415000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>9685478000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>9437450000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>9222488000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>9021965000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>8801305000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8596752000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>8430502000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>8273747000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>8107525000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7934820000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>7807119000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>7642995000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>7481077000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>7309912000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>7188004000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7074287000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>6887070000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6645195000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>1098000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1090000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1074000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1212000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1196000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1179000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1165000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1344000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1327000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1308000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1292000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1566000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1547000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1526000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1514000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1726000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1716000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1691000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1675000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1847000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1827000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1940000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1921000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>2145000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>2224000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2201000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>2180000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2364000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2341000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2332000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2310000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2608000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2590000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2600000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2616000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>2915000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>2889000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>2860000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>2829000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>1159153000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>595905000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5019870000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5081548000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5082446000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5084515000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5089093000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5142732000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5147635000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5149118000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>5150999000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4822563000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>4546237000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>4247993000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3848198000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>3528851000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3048405000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2560282000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2096861000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1454282000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1254733000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1050141000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>849468000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>431796000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>569941000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>233121000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>88671000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>23307390000</v>
+      </c>
+      <c r="C26">
         <v>23245890000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>23783930000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>16126020000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>16153410000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>15778770000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>15470300000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15196510000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>14937280000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>14851010000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>14695110000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>14565790000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>14466650000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>14529810000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>14460330000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>14356030000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>14228690000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14204580000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>14346380000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>14478190000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>15019320000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>15086550000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>15052040000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>14981600000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>15255120000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>15109480000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>15240010000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>15123550000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>14941790000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>11690430000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>11436500000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>11296800000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>11104400000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>11101820000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>10937250000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>10655360000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>10424030000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>10137190000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>9839535000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>9548330000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>25317990000</v>
+      </c>
+      <c r="C27">
         <v>25256490000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>25794530000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>17876020000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>17903400000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>17528770000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>16720300000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>16446510000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>16187280000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>16101010000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>15945110000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>15815790000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>15716650000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>15779810000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>15691830000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>15587530000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>15460190000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>15436080000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>15577880000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>15709690000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>16250820000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>16318050000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>16283540000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>16213100000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>16486620000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>16340980000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>16471510000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>16355050000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>16173290000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>12921930000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>12668000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>12528300000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>12335900000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>12333320000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>12168750000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>11886860000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>11305530000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>11016200000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>10716330000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>10422960000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>200729800000</v>
+      </c>
+      <c r="C28">
         <v>197955500000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>204032900000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>149863500000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>155107200000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>151901200000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>150622700000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>150481100000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>142601100000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>138626800000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>139537000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>124577800000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>119872800000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>125500900000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>121554900000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>120025200000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>120097400000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>116827600000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>118426100000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>118622800000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>118593500000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>120401800000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>120896600000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>123223300000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>123449200000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>126841000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>123820600000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>124625600000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>122787900000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>97797060000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>97080080000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>98377780000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>96685530000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>97228340000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>90835000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>88530360000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>85162390000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>84427480000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>83229010000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>82811950000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>169285000</v>
+      </c>
+      <c r="C29">
         <v>172886000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>175955000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>129066000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>128689000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>128684000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>128671000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>128643000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>128315000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>128285000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>128276000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>128265000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>130567000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>132256000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>134179000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>136615000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>138510000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>141454000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>144237000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>146775000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>150084000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>151264000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>152511000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>153752000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>156181000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>154953000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>157884000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>159964000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>159564000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>133275000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>133062000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>132910000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>132312000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>132100000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>131911000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>131389000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>130516000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>130194000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>129417000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>128953000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>10490000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>10840000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>350000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>490000</v>
-      </c>
-      <c r="F30">
-        <v>350000</v>
       </c>
       <c r="G30">
         <v>350000</v>
@@ -3686,10 +3860,10 @@
         <v>350000</v>
       </c>
       <c r="I30">
+        <v>350000</v>
+      </c>
+      <c r="J30">
         <v>440000</v>
-      </c>
-      <c r="J30">
-        <v>350000</v>
       </c>
       <c r="K30">
         <v>350000</v>
@@ -3698,22 +3872,22 @@
         <v>350000</v>
       </c>
       <c r="M30">
+        <v>350000</v>
+      </c>
+      <c r="N30">
         <v>440000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>350000</v>
-      </c>
-      <c r="O30">
-        <v>731500</v>
       </c>
       <c r="P30">
         <v>731500</v>
       </c>
       <c r="Q30">
+        <v>731500</v>
+      </c>
+      <c r="R30">
         <v>1631500</v>
-      </c>
-      <c r="R30">
-        <v>781500</v>
       </c>
       <c r="S30">
         <v>781500</v>
@@ -3770,7 +3944,7 @@
         <v>781500</v>
       </c>
       <c r="AK30">
-        <v>431500</v>
+        <v>781500</v>
       </c>
       <c r="AL30">
         <v>431500</v>
@@ -3781,370 +3955,382 @@
       <c r="AN30">
         <v>431500</v>
       </c>
+      <c r="AO30">
+        <v>431500</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>16618540000</v>
+      </c>
+      <c r="C31">
         <v>16528170000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>17047820000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>13280160000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>13306300000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>12929700000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>12118500000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11841980000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>11580010000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>11490620000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>11330780000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11197560000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>11094500000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11153360000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>11060290000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>10950470000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>10820020000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>10790550000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>10926200000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11051620000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>11586110000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>11646330000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>11604010000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>11525460000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>11795850000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>11641120000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>11761870000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>11633990000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>11439910000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>9390434000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>9132406000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8975438000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>8776238000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>8766498000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>8594570000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>8303445000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>7712055000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>7412288000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>7101793000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>6795908000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-22632273000</v>
+      </c>
+      <c r="C32">
         <v>-23399674000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-31373467000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-34140813000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-38721261000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-36945659000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-32397402000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-29797067000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-20828937000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-17397855000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-17063399000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-4937355000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>226598000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-7926316000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-2887263000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-670455000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-1451306000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1179873000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>194934000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1021819000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1508730000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>732393000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1105627000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-319346000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2848781000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-2387270000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>63340000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-850300000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1417686000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>3870610000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>4502191000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2487711000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>854560000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-435229000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2128640000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>874087000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1408667000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>764392000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>714307000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1843582000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>3964537000</v>
+      </c>
+      <c r="C33">
         <v>4377336000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>4136363000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3493587000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>4538369000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3604391000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3590448000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>3557503000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5456193000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>5504885000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>6473291000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>6481435000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9323186000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>7002524000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>7655507000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>8476024000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>8444914000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>9140268000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>8382316000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>8591051000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>8141430000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>8577645000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>7649580000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>8087619000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>9493835000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>10211160000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>10328750000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>10341040000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>10653860000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>10174290000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>10175910000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>10509140000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>9006959000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>9061391000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>7391931000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>6251197000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>5108870000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>5121326000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>5122398000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>5394563000</v>
       </c>
     </row>
